--- a/src/main/resources/template/materiel.xlsx
+++ b/src/main/resources/template/materiel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WytDownload\IdeaWorkSpace\materiel\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF5276-3FC7-4E94-8292-4348A1E96450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB930F9-6716-41F5-A30C-7A53B90F3DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="18195" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1530" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>物料编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,21 +396,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="1" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,35 +421,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="D1:D1048576" xr:uid="{4C957B1C-8596-44AD-BB51-A38B5BD1BDE6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="E1:E1048576" xr:uid="{4C957B1C-8596-44AD-BB51-A38B5BD1BDE6}">
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="I1:I1048576" xr:uid="{C364A227-99A6-463D-822C-462B20987BEB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="J1:J1048576" xr:uid="{C364A227-99A6-463D-822C-462B20987BEB}">
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>

--- a/src/main/resources/template/materiel.xlsx
+++ b/src/main/resources/template/materiel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WytDownload\IdeaWorkSpace\materiel\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB930F9-6716-41F5-A30C-7A53B90F3DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73D6CB-968A-44D3-9001-DA18931CEFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1530" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,11 +59,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厂家型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述(规格)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,34 +421,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="E1:E1048576" xr:uid="{4C957B1C-8596-44AD-BB51-A38B5BD1BDE6}">
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="E2:E1048576" xr:uid="{4C957B1C-8596-44AD-BB51-A38B5BD1BDE6}">
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
@@ -456,6 +456,7 @@
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="E1" xr:uid="{4B6F7088-AAED-448F-ADD5-396DFA056FB4}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/template/materiel.xlsx
+++ b/src/main/resources/template/materiel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WytDownload\IdeaWorkSpace\materiel\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73D6CB-968A-44D3-9001-DA18931CEFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA639C0-4EB9-45E8-ACAD-CCB1A8444482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,43 +31,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述(规格)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述(规格)</t>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称(分类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,15 +399,21 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -415,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -447,16 +453,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="E2:E1048576" xr:uid="{4C957B1C-8596-44AD-BB51-A38B5BD1BDE6}">
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="J2:J1048576" xr:uid="{4C957B1C-8596-44AD-BB51-A38B5BD1BDE6}">
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="J1:J1048576" xr:uid="{C364A227-99A6-463D-822C-462B20987BEB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="G2:G1048576" xr:uid="{C364A227-99A6-463D-822C-462B20987BEB}">
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="E1" xr:uid="{4B6F7088-AAED-448F-ADD5-396DFA056FB4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格只能填入数值类型" sqref="J1" xr:uid="{4B6F7088-AAED-448F-ADD5-396DFA056FB4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="G1" xr:uid="{5C433D2A-5FF2-4983-85DE-7429F8FB586C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
